--- a/panic_plus.xlsx
+++ b/panic_plus.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\stocks-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3A7F9A-C41B-4C03-B1C1-842FFAD351D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8498C1E4-8043-442E-8BD5-F5C13DE0D90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,1434 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="476">
   <si>
     <t>Date</t>
   </si>
   <si>
     <t>panic_plus</t>
+  </si>
+  <si>
+    <t>2016-01-04</t>
+  </si>
+  <si>
+    <t>2016-01-11</t>
+  </si>
+  <si>
+    <t>2016-01-18</t>
+  </si>
+  <si>
+    <t>2016-01-25</t>
+  </si>
+  <si>
+    <t>2016-02-01</t>
+  </si>
+  <si>
+    <t>2016-02-08</t>
+  </si>
+  <si>
+    <t>2016-02-15</t>
+  </si>
+  <si>
+    <t>2016-02-22</t>
+  </si>
+  <si>
+    <t>2016-02-29</t>
+  </si>
+  <si>
+    <t>2016-03-07</t>
+  </si>
+  <si>
+    <t>2016-03-14</t>
+  </si>
+  <si>
+    <t>2016-03-21</t>
+  </si>
+  <si>
+    <t>2016-03-28</t>
+  </si>
+  <si>
+    <t>2016-04-04</t>
+  </si>
+  <si>
+    <t>2016-04-11</t>
+  </si>
+  <si>
+    <t>2016-04-18</t>
+  </si>
+  <si>
+    <t>2016-04-25</t>
+  </si>
+  <si>
+    <t>2016-05-02</t>
+  </si>
+  <si>
+    <t>2016-05-09</t>
+  </si>
+  <si>
+    <t>2016-05-16</t>
+  </si>
+  <si>
+    <t>2016-05-23</t>
+  </si>
+  <si>
+    <t>2016-05-30</t>
+  </si>
+  <si>
+    <t>2016-06-06</t>
+  </si>
+  <si>
+    <t>2016-06-13</t>
+  </si>
+  <si>
+    <t>2016-06-20</t>
+  </si>
+  <si>
+    <t>2016-06-27</t>
+  </si>
+  <si>
+    <t>2016-07-04</t>
+  </si>
+  <si>
+    <t>2016-07-11</t>
+  </si>
+  <si>
+    <t>2016-07-18</t>
+  </si>
+  <si>
+    <t>2016-07-25</t>
+  </si>
+  <si>
+    <t>2016-08-01</t>
+  </si>
+  <si>
+    <t>2016-08-08</t>
+  </si>
+  <si>
+    <t>2016-08-15</t>
+  </si>
+  <si>
+    <t>2016-08-22</t>
+  </si>
+  <si>
+    <t>2016-08-29</t>
+  </si>
+  <si>
+    <t>2016-09-05</t>
+  </si>
+  <si>
+    <t>2016-09-12</t>
+  </si>
+  <si>
+    <t>2016-09-19</t>
+  </si>
+  <si>
+    <t>2016-09-26</t>
+  </si>
+  <si>
+    <t>2016-10-03</t>
+  </si>
+  <si>
+    <t>2016-10-10</t>
+  </si>
+  <si>
+    <t>2016-10-17</t>
+  </si>
+  <si>
+    <t>2016-10-24</t>
+  </si>
+  <si>
+    <t>2016-10-31</t>
+  </si>
+  <si>
+    <t>2016-11-07</t>
+  </si>
+  <si>
+    <t>2016-11-14</t>
+  </si>
+  <si>
+    <t>2016-11-21</t>
+  </si>
+  <si>
+    <t>2016-11-28</t>
+  </si>
+  <si>
+    <t>2016-12-05</t>
+  </si>
+  <si>
+    <t>2016-12-12</t>
+  </si>
+  <si>
+    <t>2016-12-19</t>
+  </si>
+  <si>
+    <t>2016-12-26</t>
+  </si>
+  <si>
+    <t>2017-01-02</t>
+  </si>
+  <si>
+    <t>2017-01-09</t>
+  </si>
+  <si>
+    <t>2017-01-16</t>
+  </si>
+  <si>
+    <t>2017-01-23</t>
+  </si>
+  <si>
+    <t>2017-01-30</t>
+  </si>
+  <si>
+    <t>2017-02-06</t>
+  </si>
+  <si>
+    <t>2017-02-13</t>
+  </si>
+  <si>
+    <t>2017-02-20</t>
+  </si>
+  <si>
+    <t>2017-02-27</t>
+  </si>
+  <si>
+    <t>2017-03-06</t>
+  </si>
+  <si>
+    <t>2017-03-13</t>
+  </si>
+  <si>
+    <t>2017-03-20</t>
+  </si>
+  <si>
+    <t>2017-03-27</t>
+  </si>
+  <si>
+    <t>2017-04-03</t>
+  </si>
+  <si>
+    <t>2017-04-10</t>
+  </si>
+  <si>
+    <t>2017-04-17</t>
+  </si>
+  <si>
+    <t>2017-04-24</t>
+  </si>
+  <si>
+    <t>2017-05-01</t>
+  </si>
+  <si>
+    <t>2017-05-08</t>
+  </si>
+  <si>
+    <t>2017-05-15</t>
+  </si>
+  <si>
+    <t>2017-05-22</t>
+  </si>
+  <si>
+    <t>2017-05-29</t>
+  </si>
+  <si>
+    <t>2017-06-05</t>
+  </si>
+  <si>
+    <t>2017-06-12</t>
+  </si>
+  <si>
+    <t>2017-06-19</t>
+  </si>
+  <si>
+    <t>2017-06-26</t>
+  </si>
+  <si>
+    <t>2017-07-03</t>
+  </si>
+  <si>
+    <t>2017-07-10</t>
+  </si>
+  <si>
+    <t>2017-07-17</t>
+  </si>
+  <si>
+    <t>2017-07-24</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-08-07</t>
+  </si>
+  <si>
+    <t>2017-08-14</t>
+  </si>
+  <si>
+    <t>2017-08-21</t>
+  </si>
+  <si>
+    <t>2017-08-28</t>
+  </si>
+  <si>
+    <t>2017-09-04</t>
+  </si>
+  <si>
+    <t>2017-09-11</t>
+  </si>
+  <si>
+    <t>2017-09-18</t>
+  </si>
+  <si>
+    <t>2017-09-25</t>
+  </si>
+  <si>
+    <t>2017-10-02</t>
+  </si>
+  <si>
+    <t>2017-10-09</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>2017-10-23</t>
+  </si>
+  <si>
+    <t>2017-10-30</t>
+  </si>
+  <si>
+    <t>2017-11-06</t>
+  </si>
+  <si>
+    <t>2017-11-13</t>
+  </si>
+  <si>
+    <t>2017-11-20</t>
+  </si>
+  <si>
+    <t>2017-11-27</t>
+  </si>
+  <si>
+    <t>2017-12-04</t>
+  </si>
+  <si>
+    <t>2017-12-11</t>
+  </si>
+  <si>
+    <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>2017-12-25</t>
+  </si>
+  <si>
+    <t>2018-01-01</t>
+  </si>
+  <si>
+    <t>2018-01-08</t>
+  </si>
+  <si>
+    <t>2018-01-15</t>
+  </si>
+  <si>
+    <t>2018-01-22</t>
+  </si>
+  <si>
+    <t>2018-01-29</t>
+  </si>
+  <si>
+    <t>2018-02-05</t>
+  </si>
+  <si>
+    <t>2018-02-12</t>
+  </si>
+  <si>
+    <t>2018-02-19</t>
+  </si>
+  <si>
+    <t>2018-02-26</t>
+  </si>
+  <si>
+    <t>2018-03-05</t>
+  </si>
+  <si>
+    <t>2018-03-12</t>
+  </si>
+  <si>
+    <t>2018-03-19</t>
+  </si>
+  <si>
+    <t>2018-03-26</t>
+  </si>
+  <si>
+    <t>2018-04-02</t>
+  </si>
+  <si>
+    <t>2018-04-09</t>
+  </si>
+  <si>
+    <t>2018-04-16</t>
+  </si>
+  <si>
+    <t>2018-04-23</t>
+  </si>
+  <si>
+    <t>2018-04-30</t>
+  </si>
+  <si>
+    <t>2018-05-07</t>
+  </si>
+  <si>
+    <t>2018-05-14</t>
+  </si>
+  <si>
+    <t>2018-05-21</t>
+  </si>
+  <si>
+    <t>2018-05-28</t>
+  </si>
+  <si>
+    <t>2018-06-04</t>
+  </si>
+  <si>
+    <t>2018-06-11</t>
+  </si>
+  <si>
+    <t>2018-06-18</t>
+  </si>
+  <si>
+    <t>2018-06-25</t>
+  </si>
+  <si>
+    <t>2018-07-02</t>
+  </si>
+  <si>
+    <t>2018-07-09</t>
+  </si>
+  <si>
+    <t>2018-07-16</t>
+  </si>
+  <si>
+    <t>2018-07-23</t>
+  </si>
+  <si>
+    <t>2018-07-30</t>
+  </si>
+  <si>
+    <t>2018-08-06</t>
+  </si>
+  <si>
+    <t>2018-08-13</t>
+  </si>
+  <si>
+    <t>2018-08-20</t>
+  </si>
+  <si>
+    <t>2018-08-27</t>
+  </si>
+  <si>
+    <t>2018-09-03</t>
+  </si>
+  <si>
+    <t>2018-09-10</t>
+  </si>
+  <si>
+    <t>2018-09-17</t>
+  </si>
+  <si>
+    <t>2018-09-24</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>2018-10-08</t>
+  </si>
+  <si>
+    <t>2018-10-15</t>
+  </si>
+  <si>
+    <t>2018-10-22</t>
+  </si>
+  <si>
+    <t>2018-10-29</t>
+  </si>
+  <si>
+    <t>2018-11-05</t>
+  </si>
+  <si>
+    <t>2018-11-12</t>
+  </si>
+  <si>
+    <t>2018-11-19</t>
+  </si>
+  <si>
+    <t>2018-11-26</t>
+  </si>
+  <si>
+    <t>2018-12-03</t>
+  </si>
+  <si>
+    <t>2018-12-10</t>
+  </si>
+  <si>
+    <t>2018-12-17</t>
+  </si>
+  <si>
+    <t>2018-12-24</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2019-01-07</t>
+  </si>
+  <si>
+    <t>2019-01-14</t>
+  </si>
+  <si>
+    <t>2019-01-21</t>
+  </si>
+  <si>
+    <t>2019-01-28</t>
+  </si>
+  <si>
+    <t>2019-02-04</t>
+  </si>
+  <si>
+    <t>2019-02-11</t>
+  </si>
+  <si>
+    <t>2019-02-18</t>
+  </si>
+  <si>
+    <t>2019-02-25</t>
+  </si>
+  <si>
+    <t>2019-03-04</t>
+  </si>
+  <si>
+    <t>2019-03-11</t>
+  </si>
+  <si>
+    <t>2019-03-18</t>
+  </si>
+  <si>
+    <t>2019-03-25</t>
+  </si>
+  <si>
+    <t>2019-04-01</t>
+  </si>
+  <si>
+    <t>2019-04-08</t>
+  </si>
+  <si>
+    <t>2019-04-15</t>
+  </si>
+  <si>
+    <t>2019-04-22</t>
+  </si>
+  <si>
+    <t>2019-04-29</t>
+  </si>
+  <si>
+    <t>2019-05-06</t>
+  </si>
+  <si>
+    <t>2019-05-13</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>2019-05-27</t>
+  </si>
+  <si>
+    <t>2019-06-03</t>
+  </si>
+  <si>
+    <t>2019-06-10</t>
+  </si>
+  <si>
+    <t>2019-06-17</t>
+  </si>
+  <si>
+    <t>2019-06-24</t>
+  </si>
+  <si>
+    <t>2019-07-01</t>
+  </si>
+  <si>
+    <t>2019-07-08</t>
+  </si>
+  <si>
+    <t>2019-07-15</t>
+  </si>
+  <si>
+    <t>2019-07-22</t>
+  </si>
+  <si>
+    <t>2019-07-29</t>
+  </si>
+  <si>
+    <t>2019-08-05</t>
+  </si>
+  <si>
+    <t>2019-08-12</t>
+  </si>
+  <si>
+    <t>2019-08-19</t>
+  </si>
+  <si>
+    <t>2019-08-26</t>
+  </si>
+  <si>
+    <t>2019-09-02</t>
+  </si>
+  <si>
+    <t>2019-09-09</t>
+  </si>
+  <si>
+    <t>2019-09-16</t>
+  </si>
+  <si>
+    <t>2019-09-23</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-10-07</t>
+  </si>
+  <si>
+    <t>2019-10-14</t>
+  </si>
+  <si>
+    <t>2019-10-21</t>
+  </si>
+  <si>
+    <t>2019-10-28</t>
+  </si>
+  <si>
+    <t>2019-11-04</t>
+  </si>
+  <si>
+    <t>2019-11-11</t>
+  </si>
+  <si>
+    <t>2019-11-18</t>
+  </si>
+  <si>
+    <t>2019-11-25</t>
+  </si>
+  <si>
+    <t>2019-12-02</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>2019-12-16</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
+    <t>2019-12-30</t>
+  </si>
+  <si>
+    <t>2020-01-06</t>
+  </si>
+  <si>
+    <t>2020-01-13</t>
+  </si>
+  <si>
+    <t>2020-01-20</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>2020-02-10</t>
+  </si>
+  <si>
+    <t>2020-02-17</t>
+  </si>
+  <si>
+    <t>2020-02-24</t>
+  </si>
+  <si>
+    <t>2020-03-02</t>
+  </si>
+  <si>
+    <t>2020-03-09</t>
+  </si>
+  <si>
+    <t>2020-03-16</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-04-06</t>
+  </si>
+  <si>
+    <t>2020-04-13</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-04-27</t>
+  </si>
+  <si>
+    <t>2020-05-04</t>
+  </si>
+  <si>
+    <t>2020-05-11</t>
+  </si>
+  <si>
+    <t>2020-05-18</t>
+  </si>
+  <si>
+    <t>2020-05-25</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>2020-06-08</t>
+  </si>
+  <si>
+    <t>2020-06-15</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2020-06-29</t>
+  </si>
+  <si>
+    <t>2020-07-06</t>
+  </si>
+  <si>
+    <t>2020-07-13</t>
+  </si>
+  <si>
+    <t>2020-07-20</t>
+  </si>
+  <si>
+    <t>2020-07-27</t>
+  </si>
+  <si>
+    <t>2020-08-03</t>
+  </si>
+  <si>
+    <t>2020-08-10</t>
+  </si>
+  <si>
+    <t>2020-08-17</t>
+  </si>
+  <si>
+    <t>2020-08-24</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2020-09-07</t>
+  </si>
+  <si>
+    <t>2020-09-14</t>
+  </si>
+  <si>
+    <t>2020-09-21</t>
+  </si>
+  <si>
+    <t>2020-09-28</t>
+  </si>
+  <si>
+    <t>2020-10-05</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2020-10-19</t>
+  </si>
+  <si>
+    <t>2020-10-26</t>
+  </si>
+  <si>
+    <t>2020-11-02</t>
+  </si>
+  <si>
+    <t>2020-11-09</t>
+  </si>
+  <si>
+    <t>2020-11-16</t>
+  </si>
+  <si>
+    <t>2020-11-23</t>
+  </si>
+  <si>
+    <t>2020-11-30</t>
+  </si>
+  <si>
+    <t>2020-12-07</t>
+  </si>
+  <si>
+    <t>2020-12-14</t>
+  </si>
+  <si>
+    <t>2020-12-21</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2021-01-04</t>
+  </si>
+  <si>
+    <t>2021-01-11</t>
+  </si>
+  <si>
+    <t>2021-01-18</t>
+  </si>
+  <si>
+    <t>2021-01-25</t>
+  </si>
+  <si>
+    <t>2021-02-01</t>
+  </si>
+  <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
+    <t>2021-02-15</t>
+  </si>
+  <si>
+    <t>2021-02-22</t>
+  </si>
+  <si>
+    <t>2021-03-01</t>
+  </si>
+  <si>
+    <t>2021-03-08</t>
+  </si>
+  <si>
+    <t>2021-03-15</t>
+  </si>
+  <si>
+    <t>2021-03-22</t>
+  </si>
+  <si>
+    <t>2021-03-29</t>
+  </si>
+  <si>
+    <t>2021-04-05</t>
+  </si>
+  <si>
+    <t>2021-04-12</t>
+  </si>
+  <si>
+    <t>2021-04-19</t>
+  </si>
+  <si>
+    <t>2021-04-26</t>
+  </si>
+  <si>
+    <t>2021-05-03</t>
+  </si>
+  <si>
+    <t>2021-05-10</t>
+  </si>
+  <si>
+    <t>2021-05-17</t>
+  </si>
+  <si>
+    <t>2021-05-24</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>2021-06-07</t>
+  </si>
+  <si>
+    <t>2021-06-14</t>
+  </si>
+  <si>
+    <t>2021-06-21</t>
+  </si>
+  <si>
+    <t>2021-06-28</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2021-07-12</t>
+  </si>
+  <si>
+    <t>2021-07-19</t>
+  </si>
+  <si>
+    <t>2021-07-26</t>
+  </si>
+  <si>
+    <t>2021-08-02</t>
+  </si>
+  <si>
+    <t>2021-08-09</t>
+  </si>
+  <si>
+    <t>2021-08-16</t>
+  </si>
+  <si>
+    <t>2021-08-23</t>
+  </si>
+  <si>
+    <t>2021-08-30</t>
+  </si>
+  <si>
+    <t>2021-09-06</t>
+  </si>
+  <si>
+    <t>2021-09-13</t>
+  </si>
+  <si>
+    <t>2021-09-20</t>
+  </si>
+  <si>
+    <t>2021-09-27</t>
+  </si>
+  <si>
+    <t>2021-10-04</t>
+  </si>
+  <si>
+    <t>2021-10-11</t>
+  </si>
+  <si>
+    <t>2021-10-18</t>
+  </si>
+  <si>
+    <t>2021-10-25</t>
+  </si>
+  <si>
+    <t>2021-11-01</t>
+  </si>
+  <si>
+    <t>2021-11-08</t>
+  </si>
+  <si>
+    <t>2021-11-15</t>
+  </si>
+  <si>
+    <t>2021-11-22</t>
+  </si>
+  <si>
+    <t>2021-11-29</t>
+  </si>
+  <si>
+    <t>2021-12-06</t>
+  </si>
+  <si>
+    <t>2021-12-13</t>
+  </si>
+  <si>
+    <t>2021-12-20</t>
+  </si>
+  <si>
+    <t>2021-12-27</t>
+  </si>
+  <si>
+    <t>2022-01-03</t>
+  </si>
+  <si>
+    <t>2022-01-10</t>
+  </si>
+  <si>
+    <t>2022-01-17</t>
+  </si>
+  <si>
+    <t>2022-01-24</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>2022-02-07</t>
+  </si>
+  <si>
+    <t>2022-02-14</t>
+  </si>
+  <si>
+    <t>2022-02-21</t>
+  </si>
+  <si>
+    <t>2022-02-28</t>
+  </si>
+  <si>
+    <t>2022-03-07</t>
+  </si>
+  <si>
+    <t>2022-03-14</t>
+  </si>
+  <si>
+    <t>2022-03-21</t>
+  </si>
+  <si>
+    <t>2022-03-28</t>
+  </si>
+  <si>
+    <t>2022-04-04</t>
+  </si>
+  <si>
+    <t>2022-04-11</t>
+  </si>
+  <si>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>2022-05-09</t>
+  </si>
+  <si>
+    <t>2022-05-16</t>
+  </si>
+  <si>
+    <t>2022-05-23</t>
+  </si>
+  <si>
+    <t>2022-05-30</t>
+  </si>
+  <si>
+    <t>2022-06-06</t>
+  </si>
+  <si>
+    <t>2022-06-13</t>
+  </si>
+  <si>
+    <t>2022-06-20</t>
+  </si>
+  <si>
+    <t>2022-06-27</t>
+  </si>
+  <si>
+    <t>2022-07-04</t>
+  </si>
+  <si>
+    <t>2022-07-11</t>
+  </si>
+  <si>
+    <t>2022-07-18</t>
+  </si>
+  <si>
+    <t>2022-07-25</t>
+  </si>
+  <si>
+    <t>2022-08-01</t>
+  </si>
+  <si>
+    <t>2022-08-08</t>
+  </si>
+  <si>
+    <t>2022-08-15</t>
+  </si>
+  <si>
+    <t>2022-08-22</t>
+  </si>
+  <si>
+    <t>2022-08-29</t>
+  </si>
+  <si>
+    <t>2022-09-05</t>
+  </si>
+  <si>
+    <t>2022-09-12</t>
+  </si>
+  <si>
+    <t>2022-09-19</t>
+  </si>
+  <si>
+    <t>2022-09-26</t>
+  </si>
+  <si>
+    <t>2022-10-03</t>
+  </si>
+  <si>
+    <t>2022-10-10</t>
+  </si>
+  <si>
+    <t>2022-10-17</t>
+  </si>
+  <si>
+    <t>2022-10-24</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
+  </si>
+  <si>
+    <t>2022-11-07</t>
+  </si>
+  <si>
+    <t>2022-11-14</t>
+  </si>
+  <si>
+    <t>2022-11-21</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2022-12-05</t>
+  </si>
+  <si>
+    <t>2022-12-12</t>
+  </si>
+  <si>
+    <t>2022-12-19</t>
+  </si>
+  <si>
+    <t>2022-12-26</t>
+  </si>
+  <si>
+    <t>2023-01-02</t>
+  </si>
+  <si>
+    <t>2023-01-09</t>
+  </si>
+  <si>
+    <t>2023-01-16</t>
+  </si>
+  <si>
+    <t>2023-01-23</t>
+  </si>
+  <si>
+    <t>2023-01-30</t>
+  </si>
+  <si>
+    <t>2023-02-06</t>
+  </si>
+  <si>
+    <t>2023-02-13</t>
+  </si>
+  <si>
+    <t>2023-02-20</t>
+  </si>
+  <si>
+    <t>2023-02-27</t>
+  </si>
+  <si>
+    <t>2023-03-06</t>
+  </si>
+  <si>
+    <t>2023-03-13</t>
+  </si>
+  <si>
+    <t>2023-03-20</t>
+  </si>
+  <si>
+    <t>2023-03-27</t>
+  </si>
+  <si>
+    <t>2023-04-03</t>
+  </si>
+  <si>
+    <t>2023-04-10</t>
+  </si>
+  <si>
+    <t>2023-04-17</t>
+  </si>
+  <si>
+    <t>2023-04-24</t>
+  </si>
+  <si>
+    <t>2023-05-01</t>
+  </si>
+  <si>
+    <t>2023-05-08</t>
+  </si>
+  <si>
+    <t>2023-05-15</t>
+  </si>
+  <si>
+    <t>2023-05-22</t>
+  </si>
+  <si>
+    <t>2023-05-29</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>2023-06-12</t>
+  </si>
+  <si>
+    <t>2023-06-19</t>
+  </si>
+  <si>
+    <t>2023-06-26</t>
+  </si>
+  <si>
+    <t>2023-07-03</t>
+  </si>
+  <si>
+    <t>2023-07-10</t>
+  </si>
+  <si>
+    <t>2023-07-17</t>
+  </si>
+  <si>
+    <t>2023-07-24</t>
+  </si>
+  <si>
+    <t>2023-07-31</t>
+  </si>
+  <si>
+    <t>2023-08-07</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
+    <t>2023-08-21</t>
+  </si>
+  <si>
+    <t>2023-08-28</t>
+  </si>
+  <si>
+    <t>2023-09-04</t>
+  </si>
+  <si>
+    <t>2023-09-11</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-10-02</t>
+  </si>
+  <si>
+    <t>2023-10-09</t>
+  </si>
+  <si>
+    <t>2023-10-16</t>
+  </si>
+  <si>
+    <t>2023-10-23</t>
+  </si>
+  <si>
+    <t>2023-10-30</t>
+  </si>
+  <si>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-13</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>2023-11-27</t>
+  </si>
+  <si>
+    <t>2023-12-04</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>2023-12-18</t>
+  </si>
+  <si>
+    <t>2023-12-25</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2024-01-08</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>2024-01-22</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>2024-02-26</t>
+  </si>
+  <si>
+    <t>2024-03-04</t>
+  </si>
+  <si>
+    <t>2024-03-11</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-04-08</t>
+  </si>
+  <si>
+    <t>2024-04-15</t>
+  </si>
+  <si>
+    <t>2024-04-22</t>
+  </si>
+  <si>
+    <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>2024-06-03</t>
+  </si>
+  <si>
+    <t>2024-06-10</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
+  </si>
+  <si>
+    <t>2024-06-24</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-07-08</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>2024-07-29</t>
+  </si>
+  <si>
+    <t>2024-08-05</t>
+  </si>
+  <si>
+    <t>2024-08-12</t>
+  </si>
+  <si>
+    <t>2024-08-19</t>
+  </si>
+  <si>
+    <t>2024-08-26</t>
+  </si>
+  <si>
+    <t>2024-09-02</t>
+  </si>
+  <si>
+    <t>2024-09-09</t>
+  </si>
+  <si>
+    <t>2024-09-16</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2024-09-30</t>
+  </si>
+  <si>
+    <t>2024-10-07</t>
+  </si>
+  <si>
+    <t>2024-10-14</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>2024-11-04</t>
+  </si>
+  <si>
+    <t>2024-11-11</t>
+  </si>
+  <si>
+    <t>2024-11-18</t>
+  </si>
+  <si>
+    <t>2024-11-25</t>
+  </si>
+  <si>
+    <t>2024-12-02</t>
+  </si>
+  <si>
+    <t>2024-12-09</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2024-12-23</t>
+  </si>
+  <si>
+    <t>2024-12-30</t>
+  </si>
+  <si>
+    <t>2025-01-06</t>
+  </si>
+  <si>
+    <t>2025-01-13</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-01-27</t>
   </si>
 </sst>
 </file>
@@ -56,18 +1478,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -82,11 +1498,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -395,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B291"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A458" workbookViewId="0">
+      <selection activeCell="E472" sqref="E472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,2331 +1821,3803 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42373</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
-        <v>1115.710556595878</v>
+        <v>772.29207113777386</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42380</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>1102.5794262284639</v>
+        <v>772.12537236588946</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42387</v>
+      <c r="A4" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>1070.9570130048869</v>
+        <v>761.51371213822165</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42394</v>
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1165.303740520005</v>
+        <v>692.52342303969249</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42401</v>
+      <c r="A6" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1168.9772883839451</v>
+        <v>643.46557320670559</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42408</v>
+      <c r="A7" t="s">
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>978.27253169999733</v>
+        <v>624.3626924141538</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42415</v>
+      <c r="A8" t="s">
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>498.29788191836451</v>
+        <v>560.87253841344102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42422</v>
+      <c r="A9" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>583.77916593989346</v>
+        <v>353.03255877708352</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42429</v>
+      <c r="A10" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>621.17125983084611</v>
+        <v>355.71063746818811</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42436</v>
+      <c r="A11" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>676.74659974935753</v>
+        <v>433.61555378306002</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42443</v>
+      <c r="A12" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>691.08417684968663</v>
+        <v>461.19811509098253</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42450</v>
+      <c r="A13" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>711.84022120838824</v>
+        <v>482.52284727890139</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42457</v>
+      <c r="A14" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>478.08442712138668</v>
+        <v>454.27571303450691</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>42464</v>
+      <c r="A15" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
-        <v>467.05064520584932</v>
+        <v>410.97310090185601</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42471</v>
+      <c r="A16" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
-        <v>398.88389066074319</v>
+        <v>386.99498960953241</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>42478</v>
+      <c r="A17" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>400.2805428736429</v>
+        <v>419.84456211491931</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42485</v>
+      <c r="A18" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>403.84473502512168</v>
+        <v>322.42882150755332</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>42492</v>
+      <c r="A19" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>465.85554070288072</v>
+        <v>395.23034885941797</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42499</v>
+      <c r="A20" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>497.92915822703083</v>
+        <v>422.72750280016709</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42506</v>
+      <c r="A21" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>506.2320427993252</v>
+        <v>418.56642987330122</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42513</v>
+      <c r="A22" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>507.93674664701638</v>
+        <v>391.72173172823068</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>42520</v>
+      <c r="A23" t="s">
+        <v>23</v>
       </c>
       <c r="B23">
-        <v>527.28793017024384</v>
+        <v>406.9400500875696</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42527</v>
+      <c r="A24" t="s">
+        <v>24</v>
       </c>
       <c r="B24">
-        <v>500.79293245468409</v>
+        <v>351.66546449508911</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>42534</v>
+      <c r="A25" t="s">
+        <v>25</v>
       </c>
       <c r="B25">
-        <v>465.63304069287739</v>
+        <v>364.06551246987573</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42541</v>
+      <c r="A26" t="s">
+        <v>26</v>
       </c>
       <c r="B26">
-        <v>441.17412730139853</v>
+        <v>332.63737552166799</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>42548</v>
+      <c r="A27" t="s">
+        <v>27</v>
       </c>
       <c r="B27">
-        <v>411.78686408964961</v>
+        <v>324.29340018702919</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42555</v>
+      <c r="A28" t="s">
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>414.93794555539131</v>
+        <v>316.45262977385079</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>42562</v>
+      <c r="A29" t="s">
+        <v>29</v>
       </c>
       <c r="B29">
-        <v>417.8084481875058</v>
+        <v>345.10469433264302</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42569</v>
+      <c r="A30" t="s">
+        <v>30</v>
       </c>
       <c r="B30">
-        <v>420.15440633512918</v>
+        <v>343.1224090827543</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>42576</v>
-      </c>
-      <c r="B31" s="3">
-        <v>412.08233972841867</v>
+      <c r="A31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31">
+        <v>341.50142890246082</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>42583</v>
+      <c r="A32" t="s">
+        <v>32</v>
       </c>
       <c r="B32">
-        <v>398.01002878734931</v>
+        <v>314.98542422292923</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>42590</v>
+      <c r="A33" t="s">
+        <v>33</v>
       </c>
       <c r="B33">
-        <v>396.23612122107698</v>
+        <v>380.22413960477849</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>42597</v>
+      <c r="A34" t="s">
+        <v>34</v>
       </c>
       <c r="B34">
-        <v>417.30909384480111</v>
+        <v>351.94058731766359</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>42604</v>
+      <c r="A35" t="s">
+        <v>35</v>
       </c>
       <c r="B35">
-        <v>397.85028678551907</v>
+        <v>368.63138038926769</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>42611</v>
+      <c r="A36" t="s">
+        <v>36</v>
       </c>
       <c r="B36">
-        <v>380.78573505900391</v>
+        <v>398.26673212064242</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>42618</v>
+      <c r="A37" t="s">
+        <v>37</v>
       </c>
       <c r="B37">
-        <v>391.59325676097421</v>
+        <v>413.62072574485438</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>42625</v>
+      <c r="A38" t="s">
+        <v>38</v>
       </c>
       <c r="B38">
-        <v>391.31144656632659</v>
+        <v>396.01794670864371</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>42632</v>
+      <c r="A39" t="s">
+        <v>39</v>
       </c>
       <c r="B39">
-        <v>375.16449790721327</v>
+        <v>429.58474062309148</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>42639</v>
+      <c r="A40" t="s">
+        <v>40</v>
       </c>
       <c r="B40">
-        <v>372.80239386252691</v>
+        <v>385.82408717627368</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>42646</v>
+      <c r="A41" t="s">
+        <v>41</v>
       </c>
       <c r="B41">
-        <v>371.24416942872767</v>
+        <v>381.93488923547449</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>42653</v>
+      <c r="A42" t="s">
+        <v>42</v>
       </c>
       <c r="B42">
-        <v>484.53504095462091</v>
+        <v>377.24955076972441</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>42660</v>
+      <c r="A43" t="s">
+        <v>43</v>
       </c>
       <c r="B43">
-        <v>566.781090883204</v>
+        <v>372.34556351197813</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42667</v>
+      <c r="A44" t="s">
+        <v>44</v>
       </c>
       <c r="B44">
-        <v>612.31215119133253</v>
+        <v>360.76198812728421</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>42674</v>
+      <c r="A45" t="s">
+        <v>45</v>
       </c>
       <c r="B45">
-        <v>498.48653088384941</v>
+        <v>337.27304955097759</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>42681</v>
+      <c r="A46" t="s">
+        <v>46</v>
       </c>
       <c r="B46">
-        <v>453.3398157782143</v>
+        <v>335.94419586761097</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>42688</v>
+      <c r="A47" t="s">
+        <v>47</v>
       </c>
       <c r="B47">
-        <v>472.08971091858012</v>
+        <v>349.21366699828349</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>42695</v>
+      <c r="A48" t="s">
+        <v>48</v>
       </c>
       <c r="B48">
-        <v>611.44783711174682</v>
+        <v>345.14236050023658</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>42702</v>
+      <c r="A49" t="s">
+        <v>49</v>
       </c>
       <c r="B49">
-        <v>895.68657245937243</v>
+        <v>344.86524535483022</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>42709</v>
+      <c r="A50" t="s">
+        <v>50</v>
       </c>
       <c r="B50">
-        <v>885.32170649029308</v>
+        <v>325.80472875864888</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>42716</v>
+      <c r="A51" t="s">
+        <v>51</v>
       </c>
       <c r="B51">
-        <v>761.38158005788159</v>
+        <v>320.76457755172947</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>42723</v>
+      <c r="A52" t="s">
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>609.10786037890716</v>
+        <v>305.78269390058279</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>42730</v>
+      <c r="A53" t="s">
+        <v>53</v>
       </c>
       <c r="B53">
-        <v>676.59083128122927</v>
+        <v>368.89586092491447</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>42370</v>
+      <c r="A54" t="s">
+        <v>54</v>
       </c>
       <c r="B54">
-        <v>1164.47689140734</v>
+        <v>567.31784606665462</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>42737</v>
+      <c r="A55" t="s">
+        <v>55</v>
       </c>
       <c r="B55">
-        <v>1026.332348869249</v>
+        <v>565.17597817895694</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>42744</v>
+      <c r="A56" t="s">
+        <v>56</v>
       </c>
       <c r="B56">
-        <v>1065.1183751234901</v>
+        <v>591.97867523582909</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>42751</v>
+      <c r="A57" t="s">
+        <v>57</v>
       </c>
       <c r="B57">
-        <v>1103.3977059008309</v>
+        <v>577.11238100028561</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>42758</v>
+      <c r="A58" t="s">
+        <v>58</v>
       </c>
       <c r="B58">
-        <v>1127.32206390598</v>
+        <v>623.15931819472007</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>42765</v>
+      <c r="A59" t="s">
+        <v>59</v>
       </c>
       <c r="B59">
-        <v>1153.3609353836539</v>
+        <v>581.67849928144017</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>42772</v>
+      <c r="A60" t="s">
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>488.07187295619008</v>
+        <v>561.70969716598768</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>42779</v>
+      <c r="A61" t="s">
+        <v>61</v>
       </c>
       <c r="B61">
-        <v>625.96160728462837</v>
+        <v>318.11367759203301</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>42786</v>
+      <c r="A62" t="s">
+        <v>62</v>
       </c>
       <c r="B62">
-        <v>659.67921530000842</v>
+        <v>307.88481083556252</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>42793</v>
+      <c r="A63" t="s">
+        <v>63</v>
       </c>
       <c r="B63">
-        <v>689.30733688328439</v>
+        <v>294.07198356146529</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>42800</v>
+      <c r="A64" t="s">
+        <v>64</v>
       </c>
       <c r="B64">
-        <v>765.10853647523732</v>
+        <v>308.51106828949139</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>42807</v>
+      <c r="A65" t="s">
+        <v>65</v>
       </c>
       <c r="B65">
-        <v>793.33741315990881</v>
+        <v>338.7619985633936</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>42814</v>
+      <c r="A66" t="s">
+        <v>66</v>
       </c>
       <c r="B66">
-        <v>817.35824793471647</v>
+        <v>328.63102754124981</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>42821</v>
+      <c r="A67" t="s">
+        <v>67</v>
       </c>
       <c r="B67">
-        <v>489.80101525469178</v>
+        <v>333.99961551428572</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>42828</v>
+      <c r="A68" t="s">
+        <v>68</v>
       </c>
       <c r="B68">
-        <v>507.30890621653748</v>
+        <v>308.06404396281539</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>42835</v>
+      <c r="A69" t="s">
+        <v>69</v>
       </c>
       <c r="B69">
-        <v>393.93990619395879</v>
+        <v>313.70837406386431</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>42842</v>
+      <c r="A70" t="s">
+        <v>70</v>
       </c>
       <c r="B70">
-        <v>363.07842142522821</v>
+        <v>324.29121070946343</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>42849</v>
+      <c r="A71" t="s">
+        <v>71</v>
       </c>
       <c r="B71">
-        <v>378.50241053714711</v>
+        <v>313.63581801596041</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>42856</v>
+      <c r="A72" t="s">
+        <v>72</v>
       </c>
       <c r="B72">
-        <v>438.47497304051439</v>
+        <v>310.41952154395318</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <v>42863</v>
+      <c r="A73" t="s">
+        <v>73</v>
       </c>
       <c r="B73">
-        <v>489.14402595422348</v>
+        <v>325.12430047927091</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <v>42870</v>
+      <c r="A74" t="s">
+        <v>74</v>
       </c>
       <c r="B74">
-        <v>507.74655171919488</v>
+        <v>398.57350204243812</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <v>42877</v>
+      <c r="A75" t="s">
+        <v>75</v>
       </c>
       <c r="B75">
-        <v>494.06061271123508</v>
+        <v>398.03596609839519</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <v>42884</v>
+      <c r="A76" t="s">
+        <v>76</v>
       </c>
       <c r="B76">
-        <v>524.38686245703298</v>
+        <v>400.89203171401459</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <v>42891</v>
+      <c r="A77" t="s">
+        <v>77</v>
       </c>
       <c r="B77">
-        <v>509.58619439226499</v>
+        <v>388.68048701649968</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <v>42898</v>
+      <c r="A78" t="s">
+        <v>78</v>
       </c>
       <c r="B78">
-        <v>403.79490498052161</v>
+        <v>398.3230062833747</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <v>42905</v>
+      <c r="A79" t="s">
+        <v>79</v>
       </c>
       <c r="B79">
-        <v>417.84982183696599</v>
+        <v>371.04291450279379</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <v>42912</v>
+      <c r="A80" t="s">
+        <v>80</v>
       </c>
       <c r="B80">
-        <v>409.32075619084361</v>
+        <v>359.65019420135019</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <v>42919</v>
+      <c r="A81" t="s">
+        <v>81</v>
       </c>
       <c r="B81">
-        <v>418.46882054324698</v>
+        <v>330.38667724334658</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <v>42926</v>
+      <c r="A82" t="s">
+        <v>82</v>
       </c>
       <c r="B82">
-        <v>395.79910552067611</v>
+        <v>330.3147642157665</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <v>42933</v>
+      <c r="A83" t="s">
+        <v>83</v>
       </c>
       <c r="B83">
-        <v>415.71471843712561</v>
+        <v>300.61218506069042</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <v>42940</v>
+      <c r="A84" t="s">
+        <v>84</v>
       </c>
       <c r="B84">
-        <v>411.20557692383318</v>
+        <v>300.50370034405449</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>42947</v>
+      <c r="A85" t="s">
+        <v>85</v>
       </c>
       <c r="B85">
-        <v>423.58134432101508</v>
+        <v>279.81958261332301</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <v>42954</v>
+      <c r="A86" t="s">
+        <v>86</v>
       </c>
       <c r="B86">
-        <v>388.44419409687248</v>
+        <v>278.47500434408431</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <v>42961</v>
+      <c r="A87" t="s">
+        <v>87</v>
       </c>
       <c r="B87">
-        <v>373.88490563291219</v>
+        <v>296.07712100039458</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <v>42968</v>
+      <c r="A88" t="s">
+        <v>88</v>
       </c>
       <c r="B88">
-        <v>353.39584924991681</v>
+        <v>315.37137773613932</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <v>42975</v>
+      <c r="A89" t="s">
+        <v>89</v>
       </c>
       <c r="B89">
-        <v>365.50397093229083</v>
+        <v>331.64352832415523</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <v>42982</v>
+      <c r="A90" t="s">
+        <v>90</v>
       </c>
       <c r="B90">
-        <v>390.28740770901788</v>
+        <v>334.63506015339863</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <v>42989</v>
+      <c r="A91" t="s">
+        <v>91</v>
       </c>
       <c r="B91">
-        <v>384.76968014336762</v>
+        <v>329.25245939984018</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <v>42996</v>
+      <c r="A92" t="s">
+        <v>92</v>
       </c>
       <c r="B92">
-        <v>371.54909421651502</v>
+        <v>331.63949362574368</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <v>43003</v>
+      <c r="A93" t="s">
+        <v>93</v>
       </c>
       <c r="B93">
-        <v>381.65667742486937</v>
+        <v>324.70487484026432</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <v>43010</v>
+      <c r="A94" t="s">
+        <v>94</v>
       </c>
       <c r="B94">
-        <v>381.98820945852589</v>
+        <v>337.38868225885102</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <v>43017</v>
+      <c r="A95" t="s">
+        <v>95</v>
       </c>
       <c r="B95">
-        <v>379.29056858806177</v>
+        <v>340.55077773869829</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <v>43024</v>
+      <c r="A96" t="s">
+        <v>96</v>
       </c>
       <c r="B96">
-        <v>393.68437416976877</v>
+        <v>347.13814729951753</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <v>43031</v>
+      <c r="A97" t="s">
+        <v>97</v>
       </c>
       <c r="B97">
-        <v>376.78610109508338</v>
+        <v>319.13532688789951</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <v>43038</v>
+      <c r="A98" t="s">
+        <v>98</v>
       </c>
       <c r="B98">
-        <v>436.63046698932533</v>
+        <v>345.34555959504172</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <v>43045</v>
+      <c r="A99" t="s">
+        <v>99</v>
       </c>
       <c r="B99">
-        <v>443.18810349679472</v>
+        <v>337.83523052446378</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <v>43052</v>
+      <c r="A100" t="s">
+        <v>100</v>
       </c>
       <c r="B100">
-        <v>438.4238811364479</v>
+        <v>318.50939535167311</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>43059</v>
+      <c r="A101" t="s">
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>432.45234126364039</v>
+        <v>308.72727459280532</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>43066</v>
+      <c r="A102" t="s">
+        <v>102</v>
       </c>
       <c r="B102">
-        <v>431.7529345668874</v>
+        <v>341.64277785213079</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>43073</v>
+      <c r="A103" t="s">
+        <v>103</v>
       </c>
       <c r="B103">
-        <v>440.92845310981937</v>
+        <v>335.12279863307037</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>43080</v>
+      <c r="A104" t="s">
+        <v>104</v>
       </c>
       <c r="B104">
-        <v>381.60139626262878</v>
+        <v>327.10460671267231</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>43087</v>
+      <c r="A105" t="s">
+        <v>105</v>
       </c>
       <c r="B105">
-        <v>429.52346487315822</v>
+        <v>347.05869866039689</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>43094</v>
+      <c r="A106" t="s">
+        <v>106</v>
       </c>
       <c r="B106">
-        <v>1167.097320723399</v>
+        <v>600.60331219565046</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>43101</v>
+      <c r="A107" t="s">
+        <v>107</v>
       </c>
       <c r="B107">
-        <v>1121.024196809152</v>
+        <v>550.23446769925454</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>43108</v>
+      <c r="A108" t="s">
+        <v>108</v>
       </c>
       <c r="B108">
-        <v>1079.2282594981291</v>
+        <v>558.05872179086259</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>43115</v>
+      <c r="A109" t="s">
+        <v>109</v>
       </c>
       <c r="B109">
-        <v>1032.415982273762</v>
+        <v>509.42507222447432</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>43122</v>
+      <c r="A110" t="s">
+        <v>110</v>
       </c>
       <c r="B110">
-        <v>1023.868551394056</v>
+        <v>554.44888459529227</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>43129</v>
+      <c r="A111" t="s">
+        <v>111</v>
       </c>
       <c r="B111">
-        <v>1012.964378569509</v>
+        <v>592.27749883790239</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>43136</v>
+      <c r="A112" t="s">
+        <v>112</v>
       </c>
       <c r="B112">
-        <v>406.74934900474562</v>
+        <v>596.8497501929528</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>43143</v>
+      <c r="A113" t="s">
+        <v>113</v>
       </c>
       <c r="B113">
-        <v>417.25114377180142</v>
+        <v>345.06508718646649</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>43150</v>
+      <c r="A114" t="s">
+        <v>114</v>
       </c>
       <c r="B114">
-        <v>450.80351044555181</v>
+        <v>352.55514980719317</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>43157</v>
+      <c r="A115" t="s">
+        <v>115</v>
       </c>
       <c r="B115">
-        <v>653.7004137460051</v>
+        <v>385.62328414039479</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>43164</v>
+      <c r="A116" t="s">
+        <v>116</v>
       </c>
       <c r="B116">
-        <v>672.90966879755456</v>
+        <v>390.29199589500257</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>43171</v>
+      <c r="A117" t="s">
+        <v>117</v>
       </c>
       <c r="B117">
-        <v>721.29209962437938</v>
+        <v>382.75641855824222</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <v>43178</v>
+      <c r="A118" t="s">
+        <v>118</v>
       </c>
       <c r="B118">
-        <v>684.52883672842245</v>
+        <v>370.73989970294889</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <v>43185</v>
+      <c r="A119" t="s">
+        <v>119</v>
       </c>
       <c r="B119">
-        <v>655.70857152208521</v>
+        <v>381.97610891489097</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <v>43192</v>
+      <c r="A120" t="s">
+        <v>120</v>
       </c>
       <c r="B120">
-        <v>622.45082212465354</v>
+        <v>396.13306178276031</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <v>43199</v>
+      <c r="A121" t="s">
+        <v>121</v>
       </c>
       <c r="B121">
-        <v>382.66927620624313</v>
+        <v>383.06214138980079</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <v>43206</v>
+      <c r="A122" t="s">
+        <v>122</v>
       </c>
       <c r="B122">
-        <v>402.11934539020899</v>
+        <v>353.54440355377471</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <v>43213</v>
+      <c r="A123" t="s">
+        <v>123</v>
       </c>
       <c r="B123">
-        <v>733.96865131397828</v>
+        <v>452.55169268379012</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <v>43220</v>
+      <c r="A124" t="s">
+        <v>124</v>
       </c>
       <c r="B124">
-        <v>752.75105991719386</v>
+        <v>470.16246464422102</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <v>43227</v>
+      <c r="A125" t="s">
+        <v>125</v>
       </c>
       <c r="B125">
-        <v>765.82615912850235</v>
+        <v>458.08432049805577</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <v>43234</v>
+      <c r="A126" t="s">
+        <v>126</v>
       </c>
       <c r="B126">
-        <v>821.87758953742741</v>
+        <v>457.77992205593989</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <v>43241</v>
+      <c r="A127" t="s">
+        <v>127</v>
       </c>
       <c r="B127">
-        <v>824.88536173012676</v>
+        <v>430.17592231610189</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <v>43248</v>
+      <c r="A128" t="s">
+        <v>128</v>
       </c>
       <c r="B128">
-        <v>820.09270237331668</v>
+        <v>420.23883261234607</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <v>43255</v>
+      <c r="A129" t="s">
+        <v>129</v>
       </c>
       <c r="B129">
-        <v>786.38853621844271</v>
+        <v>427.60115410135029</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <v>43262</v>
+      <c r="A130" t="s">
+        <v>130</v>
       </c>
       <c r="B130">
-        <v>812.29306347476177</v>
+        <v>411.99944647642599</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <v>43269</v>
+      <c r="A131" t="s">
+        <v>131</v>
       </c>
       <c r="B131">
-        <v>814.74081232360197</v>
+        <v>410.66327735736422</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <v>43276</v>
+      <c r="A132" t="s">
+        <v>132</v>
       </c>
       <c r="B132">
-        <v>854.06004257617712</v>
+        <v>434.36290004417111</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <v>43283</v>
+      <c r="A133" t="s">
+        <v>133</v>
       </c>
       <c r="B133">
-        <v>819.45215724561422</v>
+        <v>454.90510319446747</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <v>43290</v>
+      <c r="A134" t="s">
+        <v>134</v>
       </c>
       <c r="B134">
-        <v>689.19171508612897</v>
+        <v>445.10752508988071</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <v>43297</v>
+      <c r="A135" t="s">
+        <v>135</v>
       </c>
       <c r="B135">
-        <v>486.59907950805342</v>
+        <v>388.26381856631588</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <v>43304</v>
+      <c r="A136" t="s">
+        <v>136</v>
       </c>
       <c r="B136">
-        <v>509.28307870143391</v>
+        <v>321.47677281821501</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <v>43311</v>
+      <c r="A137" t="s">
+        <v>137</v>
       </c>
       <c r="B137">
-        <v>506.08202333176479</v>
+        <v>312.52677650114953</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <v>43318</v>
+      <c r="A138" t="s">
+        <v>138</v>
       </c>
       <c r="B138">
-        <v>483.77328491944922</v>
+        <v>316.50026407370069</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <v>43325</v>
+      <c r="A139" t="s">
+        <v>139</v>
       </c>
       <c r="B139">
-        <v>490.51635866670358</v>
+        <v>304.26532725299961</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <v>43332</v>
+      <c r="A140" t="s">
+        <v>140</v>
       </c>
       <c r="B140">
-        <v>479.22382249454381</v>
+        <v>304.36071685793797</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <v>43339</v>
+      <c r="A141" t="s">
+        <v>141</v>
       </c>
       <c r="B141">
-        <v>433.80540084237481</v>
+        <v>295.70302466028062</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <v>43346</v>
+      <c r="A142" t="s">
+        <v>142</v>
       </c>
       <c r="B142">
-        <v>435.59268807569077</v>
+        <v>305.15514387538451</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <v>43353</v>
+      <c r="A143" t="s">
+        <v>143</v>
       </c>
       <c r="B143">
-        <v>448.58922561687172</v>
+        <v>316.979709961906</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <v>43360</v>
+      <c r="A144" t="s">
+        <v>144</v>
       </c>
       <c r="B144">
-        <v>410.86518432292371</v>
+        <v>323.9116633237345</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <v>43367</v>
+      <c r="A145" t="s">
+        <v>145</v>
       </c>
       <c r="B145">
-        <v>396.05450302810277</v>
+        <v>337.91058080882578</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <v>43374</v>
+      <c r="A146" t="s">
+        <v>146</v>
       </c>
       <c r="B146">
-        <v>391.81563047952329</v>
+        <v>330.5023598209799</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <v>43381</v>
+      <c r="A147" t="s">
+        <v>147</v>
       </c>
       <c r="B147">
-        <v>368.06933464773749</v>
+        <v>333.93071738446378</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <v>43388</v>
+      <c r="A148" t="s">
+        <v>148</v>
       </c>
       <c r="B148">
-        <v>351.47723901065041</v>
+        <v>332.13367999864852</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <v>43395</v>
+      <c r="A149" t="s">
+        <v>149</v>
       </c>
       <c r="B149">
-        <v>364.67182456015291</v>
+        <v>328.18121525452938</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <v>43402</v>
+      <c r="A150" t="s">
+        <v>150</v>
       </c>
       <c r="B150">
-        <v>404.95736017524302</v>
+        <v>346.48459122151093</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <v>43409</v>
+      <c r="A151" t="s">
+        <v>151</v>
       </c>
       <c r="B151">
-        <v>398.81067802146458</v>
+        <v>338.56104020885448</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <v>43416</v>
+      <c r="A152" t="s">
+        <v>152</v>
       </c>
       <c r="B152">
-        <v>458.88837475906178</v>
+        <v>351.01974746223732</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <v>43423</v>
+      <c r="A153" t="s">
+        <v>153</v>
       </c>
       <c r="B153">
-        <v>455.68307085841963</v>
+        <v>351.1955331534171</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <v>43430</v>
+      <c r="A154" t="s">
+        <v>154</v>
       </c>
       <c r="B154">
-        <v>437.45542031110631</v>
+        <v>354.06932038606237</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
-        <v>43437</v>
+      <c r="A155" t="s">
+        <v>155</v>
       </c>
       <c r="B155">
-        <v>421.80164296450738</v>
+        <v>364.55259220511061</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
-        <v>43444</v>
+      <c r="A156" t="s">
+        <v>156</v>
       </c>
       <c r="B156">
-        <v>377.78356156648022</v>
+        <v>353.51907542087929</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
-        <v>43451</v>
+      <c r="A157" t="s">
+        <v>157</v>
       </c>
       <c r="B157">
-        <v>381.83733134943998</v>
+        <v>300.27788489380731</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
-        <v>43458</v>
+      <c r="A158" t="s">
+        <v>158</v>
       </c>
       <c r="B158">
-        <v>1100.9913865224071</v>
+        <v>461.38956608438451</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
-        <v>43466</v>
+      <c r="A159" t="s">
+        <v>159</v>
       </c>
       <c r="B159">
-        <v>1081.061841680905</v>
+        <v>494.92765614579861</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
-        <v>43472</v>
+      <c r="A160" t="s">
+        <v>160</v>
       </c>
       <c r="B160">
-        <v>1109.8603545149699</v>
+        <v>492.40429021152289</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
-        <v>43479</v>
+      <c r="A161" t="s">
+        <v>161</v>
       </c>
       <c r="B161">
-        <v>1186.386668720482</v>
+        <v>501.41515860776428</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>43486</v>
+      <c r="A162" t="s">
+        <v>162</v>
       </c>
       <c r="B162">
-        <v>1184.804172525405</v>
+        <v>530.30824280424861</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>43493</v>
+      <c r="A163" t="s">
+        <v>163</v>
       </c>
       <c r="B163">
-        <v>1231.979370687236</v>
+        <v>516.13017056296815</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>43500</v>
+      <c r="A164" t="s">
+        <v>164</v>
       </c>
       <c r="B164">
-        <v>738.62583600009737</v>
+        <v>520.74412725487366</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
-        <v>43507</v>
+      <c r="A165" t="s">
+        <v>165</v>
       </c>
       <c r="B165">
-        <v>366.09454314758852</v>
+        <v>375.55292348145201</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
-        <v>43514</v>
+      <c r="A166" t="s">
+        <v>166</v>
       </c>
       <c r="B166">
-        <v>347.1520639405926</v>
+        <v>328.48604186509772</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
-        <v>43521</v>
+      <c r="A167" t="s">
+        <v>167</v>
       </c>
       <c r="B167">
-        <v>482.15225610831982</v>
+        <v>355.32929416605322</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
-        <v>43528</v>
+      <c r="A168" t="s">
+        <v>168</v>
       </c>
       <c r="B168">
-        <v>470.73847535491768</v>
+        <v>356.06771228374748</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>43535</v>
+      <c r="A169" t="s">
+        <v>169</v>
       </c>
       <c r="B169">
-        <v>471.56067364005543</v>
+        <v>333.01197863876752</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>43542</v>
+      <c r="A170" t="s">
+        <v>170</v>
       </c>
       <c r="B170">
-        <v>456.99417838149913</v>
+        <v>317.87394482783878</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>43549</v>
+      <c r="A171" t="s">
+        <v>171</v>
       </c>
       <c r="B171">
-        <v>444.55655802938583</v>
+        <v>322.61464339218372</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
-        <v>43556</v>
+      <c r="A172" t="s">
+        <v>172</v>
       </c>
       <c r="B172">
-        <v>422.91543136864891</v>
+        <v>324.92844586683083</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="2">
-        <v>43563</v>
-      </c>
-      <c r="B173" s="3">
-        <v>362.341742516718</v>
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>329.12900334201362</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
-        <v>43570</v>
+      <c r="A174" t="s">
+        <v>174</v>
       </c>
       <c r="B174">
-        <v>393.04022353405651</v>
+        <v>300.10875432122577</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
-        <v>43577</v>
+      <c r="A175" t="s">
+        <v>175</v>
       </c>
       <c r="B175">
-        <v>574.3346573933876</v>
+        <v>381.96840947543558</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
-        <v>43584</v>
+      <c r="A176" t="s">
+        <v>176</v>
       </c>
       <c r="B176">
-        <v>557.24751425079376</v>
+        <v>432.22114399851529</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
-        <v>43591</v>
+      <c r="A177" t="s">
+        <v>177</v>
       </c>
       <c r="B177">
-        <v>528.888746830385</v>
+        <v>459.89154273191252</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
-        <v>43598</v>
+      <c r="A178" t="s">
+        <v>178</v>
       </c>
       <c r="B178">
-        <v>559.25178241089168</v>
+        <v>472.74685802185121</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
-        <v>43605</v>
+      <c r="A179" t="s">
+        <v>179</v>
       </c>
       <c r="B179">
-        <v>580.52553812673887</v>
+        <v>453.3597890570307</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
-        <v>43612</v>
+      <c r="A180" t="s">
+        <v>180</v>
       </c>
       <c r="B180">
-        <v>620.47259629821326</v>
+        <v>455.46481399229322</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
-        <v>43619</v>
+      <c r="A181" t="s">
+        <v>181</v>
       </c>
       <c r="B181">
-        <v>525.71295181131359</v>
+        <v>471.03023893181819</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
-        <v>43626</v>
+      <c r="A182" t="s">
+        <v>182</v>
       </c>
       <c r="B182">
-        <v>453.85530866468548</v>
+        <v>416.81704756189288</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
-        <v>43633</v>
+      <c r="A183" t="s">
+        <v>183</v>
       </c>
       <c r="B183">
-        <v>458.67216761062929</v>
+        <v>314.26114174976141</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
-        <v>43640</v>
+      <c r="A184" t="s">
+        <v>184</v>
       </c>
       <c r="B184">
-        <v>478.9401863105586</v>
+        <v>300.1747517900036</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
-        <v>43647</v>
+      <c r="A185" t="s">
+        <v>185</v>
       </c>
       <c r="B185">
-        <v>483.10414561143352</v>
+        <v>291.54995199221412</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
-        <v>43654</v>
+      <c r="A186" t="s">
+        <v>186</v>
       </c>
       <c r="B186">
-        <v>490.10563806009043</v>
+        <v>293.27119051303708</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
-        <v>43661</v>
+      <c r="A187" t="s">
+        <v>187</v>
       </c>
       <c r="B187">
-        <v>416.61963394060132</v>
+        <v>292.55208716049009</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
-        <v>43668</v>
+      <c r="A188" t="s">
+        <v>188</v>
       </c>
       <c r="B188">
-        <v>423.09448868591392</v>
+        <v>281.05457713024782</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
-        <v>43675</v>
+      <c r="A189" t="s">
+        <v>189</v>
       </c>
       <c r="B189">
-        <v>433.323114808593</v>
+        <v>296.42048449718828</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
-        <v>43682</v>
+      <c r="A190" t="s">
+        <v>190</v>
       </c>
       <c r="B190">
-        <v>435.06375577660168</v>
+        <v>291.61917262824812</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
-        <v>43689</v>
+      <c r="A191" t="s">
+        <v>191</v>
       </c>
       <c r="B191">
-        <v>437.33527656352572</v>
+        <v>290.23317381858368</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
-        <v>43696</v>
+      <c r="A192" t="s">
+        <v>192</v>
       </c>
       <c r="B192">
-        <v>425.4027905033368</v>
+        <v>284.86104649524259</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
-        <v>43703</v>
+      <c r="A193" t="s">
+        <v>193</v>
       </c>
       <c r="B193">
-        <v>434.56891543207718</v>
+        <v>299.05966663002391</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <v>43710</v>
+      <c r="A194" t="s">
+        <v>194</v>
       </c>
       <c r="B194">
-        <v>413.36785665102559</v>
+        <v>315.88223045387508</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <v>43717</v>
+      <c r="A195" t="s">
+        <v>195</v>
       </c>
       <c r="B195">
-        <v>378.09420743114089</v>
+        <v>328.5328861841698</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <v>43724</v>
+      <c r="A196" t="s">
+        <v>196</v>
       </c>
       <c r="B196">
-        <v>375.85135155125442</v>
+        <v>353.22039993646553</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <v>43731</v>
+      <c r="A197" t="s">
+        <v>197</v>
       </c>
       <c r="B197">
-        <v>376.02138644693218</v>
+        <v>375.77492408247969</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <v>43738</v>
+      <c r="A198" t="s">
+        <v>198</v>
       </c>
       <c r="B198">
-        <v>367.93473862014542</v>
+        <v>382.80077530725839</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <v>43745</v>
+      <c r="A199" t="s">
+        <v>199</v>
       </c>
       <c r="B199">
-        <v>359.65992271871141</v>
+        <v>389.37502666208889</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <v>43752</v>
+      <c r="A200" t="s">
+        <v>200</v>
       </c>
       <c r="B200">
-        <v>363.95415166388858</v>
+        <v>380.97583297003951</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <v>43759</v>
+      <c r="A201" t="s">
+        <v>201</v>
       </c>
       <c r="B201">
-        <v>363.72808746881088</v>
+        <v>373.76173352477412</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <v>43766</v>
+      <c r="A202" t="s">
+        <v>202</v>
       </c>
       <c r="B202">
-        <v>400.03401367836182</v>
+        <v>334.22434267040597</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <v>43773</v>
+      <c r="A203" t="s">
+        <v>203</v>
       </c>
       <c r="B203">
-        <v>404.07345626524221</v>
+        <v>332.62513927686967</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <v>43780</v>
+      <c r="A204" t="s">
+        <v>204</v>
       </c>
       <c r="B204">
-        <v>419.24580059388592</v>
+        <v>334.28557651872688</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <v>43787</v>
+      <c r="A205" t="s">
+        <v>205</v>
       </c>
       <c r="B205">
-        <v>426.79415492884658</v>
+        <v>341.00108247659642</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <v>43794</v>
+      <c r="A206" t="s">
+        <v>206</v>
       </c>
       <c r="B206">
-        <v>427.53903766489663</v>
+        <v>342.13267996184408</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>43801</v>
+      <c r="A207" t="s">
+        <v>207</v>
       </c>
       <c r="B207">
-        <v>461.26260546013549</v>
+        <v>334.03245880230833</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>43808</v>
+      <c r="A208" t="s">
+        <v>208</v>
       </c>
       <c r="B208">
-        <v>372.05832969806607</v>
+        <v>346.48183948193162</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>43815</v>
+      <c r="A209" t="s">
+        <v>209</v>
       </c>
       <c r="B209">
-        <v>384.05229820921397</v>
+        <v>336.43301818446758</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>43822</v>
+      <c r="A210" t="s">
+        <v>210</v>
       </c>
       <c r="B210">
-        <v>945.77447319302564</v>
+        <v>538.08781743276916</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <v>43831</v>
+      <c r="A211" t="s">
+        <v>211</v>
       </c>
       <c r="B211">
-        <v>974.44036620272209</v>
+        <v>572.32024242007333</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <v>43836</v>
+      <c r="A212" t="s">
+        <v>212</v>
       </c>
       <c r="B212">
-        <v>986.88615546948836</v>
+        <v>597.1802469640952</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <v>43843</v>
+      <c r="A213" t="s">
+        <v>213</v>
       </c>
       <c r="B213">
-        <v>976.20608571132937</v>
+        <v>653.37613258303224</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <v>43850</v>
+      <c r="A214" t="s">
+        <v>214</v>
       </c>
       <c r="B214">
-        <v>1011.172513583354</v>
+        <v>650.10078945526095</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <v>43857</v>
+      <c r="A215" t="s">
+        <v>215</v>
       </c>
       <c r="B215">
-        <v>1055.456824135428</v>
+        <v>629.07903939548328</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <v>43864</v>
+      <c r="A216" t="s">
+        <v>216</v>
       </c>
       <c r="B216">
-        <v>714.48336104343286</v>
+        <v>605.86789035307697</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <v>43871</v>
+      <c r="A217" t="s">
+        <v>217</v>
       </c>
       <c r="B217">
-        <v>379.51659755302069</v>
+        <v>375.69197986124789</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <v>43878</v>
+      <c r="A218" t="s">
+        <v>218</v>
       </c>
       <c r="B218">
-        <v>406.89008470973818</v>
+        <v>318.76186726628902</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>43885</v>
+      <c r="A219" t="s">
+        <v>219</v>
       </c>
       <c r="B219">
-        <v>400.40147455696848</v>
+        <v>315.37646546953818</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>43892</v>
+      <c r="A220" t="s">
+        <v>220</v>
       </c>
       <c r="B220">
-        <v>485.27263781145598</v>
+        <v>318.21717262857021</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>43899</v>
+      <c r="A221" t="s">
+        <v>221</v>
       </c>
       <c r="B221">
-        <v>482.98825030000631</v>
+        <v>303.07005451520791</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <v>43906</v>
+      <c r="A222" t="s">
+        <v>222</v>
       </c>
       <c r="B222">
-        <v>464.88748730770988</v>
+        <v>347.48509182104249</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <v>43913</v>
+      <c r="A223" t="s">
+        <v>223</v>
       </c>
       <c r="B223">
-        <v>434.42586609371659</v>
+        <v>344.60298372959971</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <v>43920</v>
+      <c r="A224" t="s">
+        <v>224</v>
       </c>
       <c r="B224">
-        <v>425.07157911599171</v>
+        <v>346.26941165958931</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <v>43927</v>
+      <c r="A225" t="s">
+        <v>225</v>
       </c>
       <c r="B225">
-        <v>395.10689425388171</v>
+        <v>322.66392072421769</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <v>43934</v>
+      <c r="A226" t="s">
+        <v>226</v>
       </c>
       <c r="B226">
-        <v>364.55586474073442</v>
+        <v>338.57154438194561</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <v>43941</v>
+      <c r="A227" t="s">
+        <v>227</v>
       </c>
       <c r="B227">
-        <v>369.86814006205111</v>
+        <v>351.35751202091302</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <v>43948</v>
+      <c r="A228" t="s">
+        <v>228</v>
       </c>
       <c r="B228">
-        <v>421.4465694307371</v>
+        <v>389.66065141051689</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <v>43955</v>
+      <c r="A229" t="s">
+        <v>229</v>
       </c>
       <c r="B229">
-        <v>402.19294756125061</v>
+        <v>335.52908323304177</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <v>43962</v>
+      <c r="A230" t="s">
+        <v>230</v>
       </c>
       <c r="B230">
-        <v>425.21512931184299</v>
+        <v>360.62974956604552</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <v>43969</v>
+      <c r="A231" t="s">
+        <v>231</v>
       </c>
       <c r="B231">
-        <v>434.29175999628421</v>
+        <v>355.61155991507133</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <v>43976</v>
+      <c r="A232" t="s">
+        <v>232</v>
       </c>
       <c r="B232">
-        <v>450.72822886121298</v>
+        <v>348.39042806615652</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <v>43983</v>
+      <c r="A233" t="s">
+        <v>233</v>
       </c>
       <c r="B233">
-        <v>423.5884519267554</v>
+        <v>349.39447992826581</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>43990</v>
+      <c r="A234" t="s">
+        <v>234</v>
       </c>
       <c r="B234">
-        <v>397.98405128711238</v>
+        <v>350.89471816644573</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>43997</v>
+      <c r="A235" t="s">
+        <v>235</v>
       </c>
       <c r="B235">
-        <v>393.37124438655349</v>
+        <v>351.58013947662113</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>44004</v>
+      <c r="A236" t="s">
+        <v>236</v>
       </c>
       <c r="B236">
-        <v>403.78830349686871</v>
+        <v>339.66222001167517</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>44011</v>
+      <c r="A237" t="s">
+        <v>237</v>
       </c>
       <c r="B237">
-        <v>426.96264150584932</v>
+        <v>330.97396383580502</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>44018</v>
+      <c r="A238" t="s">
+        <v>238</v>
       </c>
       <c r="B238">
-        <v>602.65150872681306</v>
+        <v>349.20527893236249</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>44025</v>
+      <c r="A239" t="s">
+        <v>239</v>
       </c>
       <c r="B239">
-        <v>625.9022680028379</v>
+        <v>361.4581618742564</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>44032</v>
+      <c r="A240" t="s">
+        <v>240</v>
       </c>
       <c r="B240">
-        <v>563.36720709640952</v>
+        <v>342.27651196155892</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>44039</v>
+      <c r="A241" t="s">
+        <v>241</v>
       </c>
       <c r="B241">
-        <v>589.88401090556499</v>
+        <v>349.23053844736972</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>44046</v>
+      <c r="A242" t="s">
+        <v>242</v>
       </c>
       <c r="B242">
-        <v>557.78802283907635</v>
+        <v>336.99387583644</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>44053</v>
+      <c r="A243" t="s">
+        <v>243</v>
       </c>
       <c r="B243">
-        <v>541.98854582874822</v>
+        <v>349.2564523906741</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>44060</v>
+      <c r="A244" t="s">
+        <v>244</v>
       </c>
       <c r="B244">
-        <v>366.49422303298729</v>
+        <v>346.19103248557172</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>44067</v>
+      <c r="A245" t="s">
+        <v>245</v>
       </c>
       <c r="B245">
-        <v>394.70704174242661</v>
+        <v>312.87407824766501</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>44074</v>
+      <c r="A246" t="s">
+        <v>246</v>
       </c>
       <c r="B246">
-        <v>396.48939996123579</v>
+        <v>307.79613912177581</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>44081</v>
+      <c r="A247" t="s">
+        <v>247</v>
       </c>
       <c r="B247">
-        <v>381.8253314297624</v>
+        <v>311.65464611038271</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>44088</v>
+      <c r="A248" t="s">
+        <v>248</v>
       </c>
       <c r="B248">
-        <v>398.06659118245199</v>
+        <v>314.49777254093351</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>44095</v>
+      <c r="A249" t="s">
+        <v>249</v>
       </c>
       <c r="B249">
-        <v>389.45828403764011</v>
+        <v>309.84744178136259</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>44102</v>
+      <c r="A250" t="s">
+        <v>250</v>
       </c>
       <c r="B250">
-        <v>401.0983883874602</v>
+        <v>307.75524123654321</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>44109</v>
+      <c r="A251" t="s">
+        <v>251</v>
       </c>
       <c r="B251">
-        <v>410.19688559138137</v>
+        <v>304.31675078403538</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>44116</v>
+      <c r="A252" t="s">
+        <v>252</v>
       </c>
       <c r="B252">
-        <v>410.82483056311833</v>
+        <v>299.32716430363809</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>44123</v>
+      <c r="A253" t="s">
+        <v>253</v>
       </c>
       <c r="B253">
-        <v>398.13117032177928</v>
+        <v>304.33825743220018</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>44130</v>
+      <c r="A254" t="s">
+        <v>254</v>
       </c>
       <c r="B254">
-        <v>424.75492205880113</v>
+        <v>313.3239591763716</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>44137</v>
+      <c r="A255" t="s">
+        <v>255</v>
       </c>
       <c r="B255">
-        <v>405.14458715360217</v>
+        <v>287.38504153571853</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>44144</v>
+      <c r="A256" t="s">
+        <v>256</v>
       </c>
       <c r="B256">
-        <v>377.98535080255181</v>
+        <v>279.93474827832279</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>44151</v>
+      <c r="A257" t="s">
+        <v>257</v>
       </c>
       <c r="B257">
-        <v>373.49085705094109</v>
+        <v>306.76167016176692</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>44158</v>
+      <c r="A258" t="s">
+        <v>258</v>
       </c>
       <c r="B258">
-        <v>366.56094496508001</v>
+        <v>326.11296711853657</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>44165</v>
+      <c r="A259" t="s">
+        <v>259</v>
       </c>
       <c r="B259">
-        <v>383.11514682263618</v>
+        <v>334.29645394340378</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>44172</v>
+      <c r="A260" t="s">
+        <v>260</v>
       </c>
       <c r="B260">
-        <v>425.31628209329079</v>
+        <v>325.88565146241478</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>44179</v>
+      <c r="A261" t="s">
+        <v>261</v>
       </c>
       <c r="B261">
-        <v>454.59921614022022</v>
+        <v>314.74048165664709</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>44186</v>
+      <c r="A262" t="s">
+        <v>262</v>
       </c>
       <c r="B262">
-        <v>633.47974867305879</v>
+        <v>467.65521735735069</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>44193</v>
+      <c r="A263" t="s">
+        <v>263</v>
       </c>
       <c r="B263">
-        <v>865.0682945102576</v>
+        <v>698.93808927367422</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>44200</v>
+      <c r="A264" t="s">
+        <v>264</v>
       </c>
       <c r="B264">
-        <v>906.5030865894056</v>
+        <v>713.42141984667262</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>44207</v>
+      <c r="A265" t="s">
+        <v>265</v>
       </c>
       <c r="B265">
-        <v>795.47405653380861</v>
+        <v>664.04519452601392</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>44214</v>
+      <c r="A266" t="s">
+        <v>266</v>
       </c>
       <c r="B266">
-        <v>816.2159246143608</v>
+        <v>662.15877854183304</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>44221</v>
+      <c r="A267" t="s">
+        <v>267</v>
       </c>
       <c r="B267">
-        <v>867.02721953894297</v>
+        <v>647.92237604021898</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>44228</v>
+      <c r="A268" t="s">
+        <v>268</v>
       </c>
       <c r="B268">
-        <v>799.48270513879606</v>
+        <v>676.40793250527315</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>44235</v>
+      <c r="A269" t="s">
+        <v>269</v>
       </c>
       <c r="B269">
-        <v>533.93397563889664</v>
+        <v>598.84393481399832</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>44242</v>
+      <c r="A270" t="s">
+        <v>270</v>
       </c>
       <c r="B270">
-        <v>620.0030599458421</v>
+        <v>334.74137257914168</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>44249</v>
+      <c r="A271" t="s">
+        <v>271</v>
       </c>
       <c r="B271">
-        <v>607.78749365493377</v>
+        <v>344.71439463876999</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>44256</v>
+      <c r="A272" t="s">
+        <v>272</v>
       </c>
       <c r="B272">
-        <v>652.94410359883886</v>
+        <v>366.94833061917137</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <v>44263</v>
+      <c r="A273" t="s">
+        <v>273</v>
       </c>
       <c r="B273">
-        <v>651.66525441731494</v>
+        <v>377.30963651213762</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <v>44270</v>
+      <c r="A274" t="s">
+        <v>274</v>
       </c>
       <c r="B274">
-        <v>630.16117739429774</v>
+        <v>373.16166180610833</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <v>44277</v>
+      <c r="A275" t="s">
+        <v>275</v>
       </c>
       <c r="B275">
-        <v>479.10611581777709</v>
+        <v>353.65869805667091</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <v>44284</v>
+      <c r="A276" t="s">
+        <v>276</v>
       </c>
       <c r="B276">
-        <v>398.09902659137907</v>
+        <v>352.67366786500492</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
-        <v>44291</v>
+      <c r="A277" t="s">
+        <v>277</v>
       </c>
       <c r="B277">
-        <v>399.62033934327951</v>
+        <v>355.26712858360639</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
-        <v>44298</v>
+      <c r="A278" t="s">
+        <v>278</v>
       </c>
       <c r="B278">
-        <v>360.34568890599343</v>
+        <v>378.39294646296059</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
-        <v>44305</v>
+      <c r="A279" t="s">
+        <v>279</v>
       </c>
       <c r="B279">
-        <v>360.22006554171878</v>
+        <v>374.15622508662091</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
-        <v>44312</v>
+      <c r="A280" t="s">
+        <v>280</v>
       </c>
       <c r="B280">
-        <v>415.54805092044751</v>
+        <v>454.65388684288581</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
-        <v>44319</v>
+      <c r="A281" t="s">
+        <v>281</v>
       </c>
       <c r="B281">
-        <v>407.93645531636611</v>
+        <v>450.86020920790679</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
-        <v>44326</v>
+      <c r="A282" t="s">
+        <v>282</v>
       </c>
       <c r="B282">
-        <v>411.23867266158612</v>
+        <v>448.50532550203008</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
-        <v>44333</v>
+      <c r="A283" t="s">
+        <v>283</v>
       </c>
       <c r="B283">
-        <v>402.13052758290797</v>
+        <v>439.99002823269268</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
-        <v>44340</v>
+      <c r="A284" t="s">
+        <v>284</v>
       </c>
       <c r="B284">
-        <v>401.92273871767702</v>
+        <v>432.78276336683672</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
-        <v>44347</v>
+      <c r="A285" t="s">
+        <v>285</v>
       </c>
       <c r="B285">
-        <v>431.77322644636439</v>
+        <v>394.39622432072889</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
-        <v>44354</v>
+      <c r="A286" t="s">
+        <v>286</v>
       </c>
       <c r="B286">
-        <v>407.36328365638542</v>
+        <v>422.35079230639388</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
-        <v>44361</v>
+      <c r="A287" t="s">
+        <v>287</v>
       </c>
       <c r="B287">
-        <v>411.46580598518472</v>
+        <v>386.07239681615778</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
-        <v>44368</v>
+      <c r="A288" t="s">
+        <v>288</v>
       </c>
       <c r="B288">
-        <v>407.30917168151501</v>
+        <v>348.05579148083598</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
-        <v>44375</v>
+      <c r="A289" t="s">
+        <v>289</v>
       </c>
       <c r="B289">
-        <v>400.59154184158871</v>
+        <v>340.98281109669068</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
-        <v>44382</v>
+      <c r="A290" t="s">
+        <v>290</v>
       </c>
       <c r="B290">
-        <v>435.34735852881869</v>
+        <v>334.26827003183791</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
-        <v>44389</v>
+      <c r="A291" t="s">
+        <v>291</v>
       </c>
       <c r="B291">
-        <v>442.30196878381707</v>
+        <v>329.38422614778398</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>331.05384466671012</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>296.41241524360692</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>298.20017316883809</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>307.15743274211138</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>313.68960919041132</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>329.1440326527358</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>298</v>
+      </c>
+      <c r="B298">
+        <v>327.82154525072798</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>299</v>
+      </c>
+      <c r="B299">
+        <v>329.14162416197979</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>300</v>
+      </c>
+      <c r="B300">
+        <v>329.46694220259309</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>301</v>
+      </c>
+      <c r="B301">
+        <v>305.23045363412717</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>302</v>
+      </c>
+      <c r="B302">
+        <v>319.52427389588138</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>303</v>
+      </c>
+      <c r="B303">
+        <v>316.14439367996988</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>304</v>
+      </c>
+      <c r="B304">
+        <v>322.72648190392448</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>305</v>
+      </c>
+      <c r="B305">
+        <v>317.5169243653458</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>306</v>
+      </c>
+      <c r="B306">
+        <v>311.75240269955458</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>307</v>
+      </c>
+      <c r="B307">
+        <v>329.17972005525547</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>308</v>
+      </c>
+      <c r="B308">
+        <v>320.74506550605918</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>309</v>
+      </c>
+      <c r="B309">
+        <v>319.77745274694121</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="B310">
+        <v>328.36578952050007</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>323.23366261224368</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>307.5584793203123</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>291.16343803118002</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>331.53339673474301</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>493.09451523096521</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>502.64184229126579</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>477.28126654950847</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>484.13288292775343</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>503.50557485618708</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>517.52178681831595</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>490.60911128439471</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>299.81773241680389</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>315.83582868332809</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>320.62141987583459</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>340.04061745961047</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>328.65488950194998</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>320.8877137487172</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>309.66760680652709</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>314.3618834825113</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>300.79297120970517</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>284.71197974820171</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>313.82522466176539</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>329.07597620265079</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>337.27899031248103</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>350.01158164643027</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>385.22469176955428</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>414.41150479027351</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>401.97086707413467</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>372.52806550159289</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>315.70138870849581</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>323.52575435928031</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>330.28057925659567</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>318.6245489706385</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>312.92156541877108</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>342.67426337524103</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>347.38112190799478</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>352.2348905461165</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>352.61957031301853</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>343.98771515231562</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>326.62791137910028</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>348.61634069676001</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>352</v>
+      </c>
+      <c r="B352">
+        <v>368.61889489306742</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>353</v>
+      </c>
+      <c r="B353">
+        <v>356.55689536127278</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>354</v>
+      </c>
+      <c r="B354">
+        <v>337.46506065791539</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>355</v>
+      </c>
+      <c r="B355">
+        <v>343.94291367091319</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>356</v>
+      </c>
+      <c r="B356">
+        <v>368.89436628796199</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>357</v>
+      </c>
+      <c r="B357">
+        <v>352.87765110345231</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>358</v>
+      </c>
+      <c r="B358">
+        <v>364.54173253418458</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>359</v>
+      </c>
+      <c r="B359">
+        <v>329.05252401978851</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>360</v>
+      </c>
+      <c r="B360">
+        <v>330.34906683390938</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>361</v>
+      </c>
+      <c r="B361">
+        <v>353.51688663621309</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>362</v>
+      </c>
+      <c r="B362">
+        <v>322.84620328620662</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>363</v>
+      </c>
+      <c r="B363">
+        <v>326.00864773340658</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>364</v>
+      </c>
+      <c r="B364">
+        <v>340.94561437558139</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>365</v>
+      </c>
+      <c r="B365">
+        <v>330.7306768125178</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>366</v>
+      </c>
+      <c r="B366">
+        <v>339.8725914911609</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>367</v>
+      </c>
+      <c r="B367">
+        <v>541.37040257900765</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>368</v>
+      </c>
+      <c r="B368">
+        <v>557.29574758124397</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>369</v>
+      </c>
+      <c r="B369">
+        <v>524.7552385683199</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>370</v>
+      </c>
+      <c r="B370">
+        <v>537.10656004483178</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>371</v>
+      </c>
+      <c r="B371">
+        <v>553.50065701469043</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>372</v>
+      </c>
+      <c r="B372">
+        <v>563.59733114222604</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>373</v>
+      </c>
+      <c r="B373">
+        <v>566.22456071630256</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>374</v>
+      </c>
+      <c r="B374">
+        <v>335.03542237687441</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>375</v>
+      </c>
+      <c r="B375">
+        <v>323.305032725133</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>376</v>
+      </c>
+      <c r="B376">
+        <v>327.87918016419547</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>377</v>
+      </c>
+      <c r="B377">
+        <v>349.53793134213169</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>378</v>
+      </c>
+      <c r="B378">
+        <v>333.87205818485779</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>379</v>
+      </c>
+      <c r="B379">
+        <v>349.24784090372242</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>380</v>
+      </c>
+      <c r="B380">
+        <v>364.44850983438897</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>381</v>
+      </c>
+      <c r="B381">
+        <v>312.68889322413833</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>382</v>
+      </c>
+      <c r="B382">
+        <v>387.50006342039092</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>383</v>
+      </c>
+      <c r="B383">
+        <v>378.73087960608871</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>384</v>
+      </c>
+      <c r="B384">
+        <v>376.85743976506149</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>385</v>
+      </c>
+      <c r="B385">
+        <v>385.23451988700879</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>386</v>
+      </c>
+      <c r="B386">
+        <v>384.84291901398751</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>387</v>
+      </c>
+      <c r="B387">
+        <v>369.68168953416358</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>388</v>
+      </c>
+      <c r="B388">
+        <v>369.79280315051602</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>389</v>
+      </c>
+      <c r="B389">
+        <v>330.19480811090108</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>390</v>
+      </c>
+      <c r="B390">
+        <v>338.9005126516152</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>391</v>
+      </c>
+      <c r="B391">
+        <v>339.66590789473742</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>392</v>
+      </c>
+      <c r="B392">
+        <v>321.26404842845278</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>393</v>
+      </c>
+      <c r="B393">
+        <v>307.16404178720671</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>394</v>
+      </c>
+      <c r="B394">
+        <v>315.76475490801442</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>395</v>
+      </c>
+      <c r="B395">
+        <v>315.85875909370873</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>396</v>
+      </c>
+      <c r="B396">
+        <v>313.01573201264029</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>397</v>
+      </c>
+      <c r="B397">
+        <v>309.5289198402499</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>398</v>
+      </c>
+      <c r="B398">
+        <v>325.03773656081819</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>399</v>
+      </c>
+      <c r="B399">
+        <v>305.19445545521182</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>400</v>
+      </c>
+      <c r="B400">
+        <v>314.85615857734319</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>401</v>
+      </c>
+      <c r="B401">
+        <v>326.57680438316481</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>402</v>
+      </c>
+      <c r="B402">
+        <v>322.98469421688088</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>403</v>
+      </c>
+      <c r="B403">
+        <v>296.21311017223388</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>404</v>
+      </c>
+      <c r="B404">
+        <v>301.68451412771083</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>405</v>
+      </c>
+      <c r="B405">
+        <v>302.11117573214119</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>406</v>
+      </c>
+      <c r="B406">
+        <v>325.2069670930934</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>407</v>
+      </c>
+      <c r="B407">
+        <v>323.7384752579423</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>408</v>
+      </c>
+      <c r="B408">
+        <v>320.22900239696838</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>409</v>
+      </c>
+      <c r="B409">
+        <v>333.23556746307207</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>410</v>
+      </c>
+      <c r="B410">
+        <v>305.20363861458122</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>411</v>
+      </c>
+      <c r="B411">
+        <v>365.36524997216702</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>412</v>
+      </c>
+      <c r="B412">
+        <v>359.79774330988909</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>413</v>
+      </c>
+      <c r="B413">
+        <v>362.55029579864151</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>414</v>
+      </c>
+      <c r="B414">
+        <v>366.32733735322847</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>415</v>
+      </c>
+      <c r="B415">
+        <v>391.3283663497827</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>416</v>
+      </c>
+      <c r="B416">
+        <v>382.82540454868558</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>417</v>
+      </c>
+      <c r="B417">
+        <v>383.71230720897807</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>418</v>
+      </c>
+      <c r="B418">
+        <v>360.10122009977391</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>419</v>
+      </c>
+      <c r="B419">
+        <v>572.39789285909171</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>420</v>
+      </c>
+      <c r="B420">
+        <v>546.13540779441644</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>421</v>
+      </c>
+      <c r="B421">
+        <v>572.0513130776659</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>422</v>
+      </c>
+      <c r="B422">
+        <v>521.38789666901505</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>423</v>
+      </c>
+      <c r="B423">
+        <v>515.83180896084275</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>424</v>
+      </c>
+      <c r="B424">
+        <v>543.66514899642641</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>425</v>
+      </c>
+      <c r="B425">
+        <v>555.43958934287355</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>426</v>
+      </c>
+      <c r="B426">
+        <v>333.89913096823062</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>427</v>
+      </c>
+      <c r="B427">
+        <v>330.19079409069809</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>428</v>
+      </c>
+      <c r="B428">
+        <v>344.20757179369588</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>429</v>
+      </c>
+      <c r="B429">
+        <v>349.60106150277949</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>430</v>
+      </c>
+      <c r="B430">
+        <v>338.38810355256692</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>431</v>
+      </c>
+      <c r="B431">
+        <v>330.58803812502862</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>432</v>
+      </c>
+      <c r="B432">
+        <v>328.7029168527207</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>433</v>
+      </c>
+      <c r="B433">
+        <v>319.00854423093728</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>434</v>
+      </c>
+      <c r="B434">
+        <v>331.34203045226383</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>435</v>
+      </c>
+      <c r="B435">
+        <v>324.01740543918049</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>436</v>
+      </c>
+      <c r="B436">
+        <v>393.55266584867451</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>437</v>
+      </c>
+      <c r="B437">
+        <v>429.3536158920237</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>438</v>
+      </c>
+      <c r="B438">
+        <v>409.79977925363522</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>439</v>
+      </c>
+      <c r="B439">
+        <v>445.29780143595349</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>440</v>
+      </c>
+      <c r="B440">
+        <v>448.27008256981662</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>441</v>
+      </c>
+      <c r="B441">
+        <v>424.94954233385891</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>442</v>
+      </c>
+      <c r="B442">
+        <v>393.82221660496919</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>443</v>
+      </c>
+      <c r="B443">
+        <v>349.06673507684633</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>444</v>
+      </c>
+      <c r="B444">
+        <v>304.06587035134987</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>445</v>
+      </c>
+      <c r="B445">
+        <v>298.58500396431731</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>446</v>
+      </c>
+      <c r="B446">
+        <v>299.52961233349703</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>447</v>
+      </c>
+      <c r="B447">
+        <v>332.59638552537939</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>448</v>
+      </c>
+      <c r="B448">
+        <v>335.88562454623872</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>449</v>
+      </c>
+      <c r="B449">
+        <v>303.60955232315843</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>450</v>
+      </c>
+      <c r="B450">
+        <v>343.71489054321711</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>451</v>
+      </c>
+      <c r="B451">
+        <v>367.4383638649756</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>452</v>
+      </c>
+      <c r="B452">
+        <v>383.37598284981959</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>453</v>
+      </c>
+      <c r="B453">
+        <v>368.80308987459091</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>454</v>
+      </c>
+      <c r="B454">
+        <v>353.97293572836099</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>455</v>
+      </c>
+      <c r="B455">
+        <v>315.92065210898789</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>456</v>
+      </c>
+      <c r="B456">
+        <v>312.62091742453168</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>457</v>
+      </c>
+      <c r="B457">
+        <v>319.58635190636181</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>458</v>
+      </c>
+      <c r="B458">
+        <v>303.12457892339859</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>459</v>
+      </c>
+      <c r="B459">
+        <v>331.5404143868908</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>460</v>
+      </c>
+      <c r="B460">
+        <v>332.20158199795799</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>461</v>
+      </c>
+      <c r="B461">
+        <v>344.67159045733212</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>462</v>
+      </c>
+      <c r="B462">
+        <v>363.12113556488941</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>463</v>
+      </c>
+      <c r="B463">
+        <v>343.40196415081198</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>464</v>
+      </c>
+      <c r="B464">
+        <v>324.16915014414081</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>465</v>
+      </c>
+      <c r="B465">
+        <v>329.70092391464817</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>466</v>
+      </c>
+      <c r="B466">
+        <v>322.03195313002811</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>467</v>
+      </c>
+      <c r="B467">
+        <v>323.14606099166349</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>468</v>
+      </c>
+      <c r="B468">
+        <v>341.74098290751169</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>469</v>
+      </c>
+      <c r="B469">
+        <v>285.91167821888229</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>470</v>
+      </c>
+      <c r="B470">
+        <v>286.69067914065721</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>471</v>
+      </c>
+      <c r="B471">
+        <v>433.79770205863019</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>472</v>
+      </c>
+      <c r="B472">
+        <v>453.80947830786408</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>473</v>
+      </c>
+      <c r="B473">
+        <v>449.80234447462971</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>474</v>
+      </c>
+      <c r="B474">
+        <v>476.72618714238962</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>475</v>
+      </c>
+      <c r="B475">
+        <v>499.52022790688977</v>
       </c>
     </row>
   </sheetData>
